--- a/biology/Zoologie/Encope/Encope.xlsx
+++ b/biology/Zoologie/Encope/Encope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Encope forment un genre d'oursins plats de l'ordre des Clypéastéroïdes et de la famille des Mellitidae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins plats, d'où leur surnom anglais de sand dollars, du fait de leur ressemblance avec une grosse pièce. 
-Leur forme est arrondie, avec un test (coquille) perforé d'une lunule anale antérieure et portant des encoches radiales, généralement couvert de radioles (piquants) fines et courtes formant un tapis mobile permettant la progression dans le sable. La bouche, très réduite, occupe une position centrale sur la face inférieure, et la lanterne d'Aristote (appareil masticateur) est modifiée en « moulin à sable » plat[1].
-Sur le test, le système apical comporte 5 gonopores, les pétales ambulacraires sont ellipsoïdaux mais non fermés[2].
-Ces oursins se trouvent exclusivement aux Amériques (des deux côtés), depuis le Miocène[2] (Burdigalien[3]). Ce sont essentiellement des espèces intertidales, même si deux d'entre elles peuvent être trouvées jusqu'à une centaine de mètres de profondeur[3]. 
+Leur forme est arrondie, avec un test (coquille) perforé d'une lunule anale antérieure et portant des encoches radiales, généralement couvert de radioles (piquants) fines et courtes formant un tapis mobile permettant la progression dans le sable. La bouche, très réduite, occupe une position centrale sur la face inférieure, et la lanterne d'Aristote (appareil masticateur) est modifiée en « moulin à sable » plat.
+Sur le test, le système apical comporte 5 gonopores, les pétales ambulacraires sont ellipsoïdaux mais non fermés.
+Ces oursins se trouvent exclusivement aux Amériques (des deux côtés), depuis le Miocène (Burdigalien). Ce sont essentiellement des espèces intertidales, même si deux d'entre elles peuvent être trouvées jusqu'à une centaine de mètres de profondeur. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (29 mars 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (29 mars 2014) :
 Encope aberrans Martens, 1867 -- Atlantique ouest de la Caroline du Nord au Yucatan
 Encope angelensis Durham, 1950 †
 Encope arcensis Durham, 1950 †
